--- a/recorded_solve_times.xlsx
+++ b/recorded_solve_times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcr2\Desktop\Python Projects\ODE-solvers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F89019F-105C-465F-87A2-412A0847E072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9239DEB3-0AE1-4BE8-BF3F-377AA9B7DA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{938978AC-F930-4F30-918D-FF9F5C32A43B}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Methods</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Forward Euler</t>
   </si>
@@ -62,7 +59,19 @@
     <t>Adams-Moulton</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>beta=0.2</t>
+  </si>
+  <si>
+    <t>beta=0.5</t>
+  </si>
+  <si>
+    <t>beta=0.8</t>
+  </si>
+  <si>
+    <t>Average Time</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
 </sst>
 </file>
@@ -78,15 +87,69 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,13 +157,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -109,6 +214,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -155,7 +265,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Time-to-Run of the ODE solvers</a:t>
+              <a:t>Run-times of ODE solver methods for varying beta</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -205,7 +315,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time</c:v>
+                  <c:v>beta=0.2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -256,32 +366,210 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.761E-3</c:v>
+                  <c:v>3.0509999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4175000000000001E-2</c:v>
+                  <c:v>6.4916000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0359E-2</c:v>
+                  <c:v>1.1102000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2682000000000001E-2</c:v>
+                  <c:v>1.3396999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8579E-2</c:v>
+                  <c:v>3.0447999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4645E-2</c:v>
+                  <c:v>1.5436999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5490000000000001E-3</c:v>
+                  <c:v>6.9420000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7D9A-4072-9D3B-356A55FB0507}"/>
+              <c16:uniqueId val="{00000000-CBCB-464A-815B-CBD56960B5CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>beta=0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Forward Euler</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Backwards Euler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Midpoint Method</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Heuns Method</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Runge Kutta RK4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Adams-Bashforth</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adams-Moulton</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.9060000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2765000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0796999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3440000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0387000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5169999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8960000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBCB-464A-815B-CBD56960B5CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>beta=0.8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Forward Euler</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Backwards Euler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Midpoint Method</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Heuns Method</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Runge Kutta RK4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Adams-Bashforth</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adams-Moulton</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0349999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2738000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.119E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5654000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2280999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5466000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9680000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CBCB-464A-815B-CBD56960B5CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -295,11 +583,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1834706255"/>
-        <c:axId val="1083662719"/>
+        <c:axId val="1298878095"/>
+        <c:axId val="1212975503"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1834706255"/>
+        <c:axId val="1298878095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -342,7 +630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1083662719"/>
+        <c:crossAx val="1212975503"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -350,7 +638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1083662719"/>
+        <c:axId val="1212975503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,7 +679,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Time (s)</a:t>
+                  <a:t>Run-time (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -456,7 +744,424 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1834706255"/>
+        <c:crossAx val="1298878095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average run-times of ODE solver methods</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Forward Euler</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Backwards Euler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Midpoint Method</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Heuns Method</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Runge Kutta RK4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Adams-Bashforth</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adams-Moulton</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.9973333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3473000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1029666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4163666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1038666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5357666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9353333333333324E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEB0-4CFF-9E44-DCE95F64A7E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1292791615"/>
+        <c:axId val="1212977487"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1292791615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1212977487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1212977487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Run-time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1292791615"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -552,6 +1257,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1055,27 +1800,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>187325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB6F82E-381E-88B0-7094-9160629054A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E74BC9E-F074-F866-4769-F7168E9C4442}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,6 +2336,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B128A0E-1273-7F14-DB95-5533A28D3E35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1416,7 +2700,7 @@
   <dimension ref="B2:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1426,55 +2710,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.761E-3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.8519999999999999E-3</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>3.0509999999999999E-3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2.9060000000000002E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.0349999999999999E-3</v>
+      </c>
+      <c r="F3" s="8">
+        <f>AVERAGE(C3,D3,E3)</f>
+        <v>2.9973333333333332E-3</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1484,17 +2759,22 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5.4175000000000001E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6.1904000000000001E-2</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>6.4916000000000001E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>6.2765000000000001E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.2738000000000002E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F9" si="0">AVERAGE(C4,D4,E4)</f>
+        <v>6.3473000000000002E-2</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1504,17 +2784,22 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.0359E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.1027E-2</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.1102000000000001E-2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.0796999999999999E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.119E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.1029666666666667E-2</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1524,17 +2809,22 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.2682000000000001E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.3568999999999999E-2</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.3396999999999999E-2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.5654000000000001E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4163666666666666E-2</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1544,17 +2834,22 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.8579E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.0478999999999999E-2</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3.0447999999999999E-2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3.0387000000000001E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.2280999999999997E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>3.1038666666666669E-2</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1564,17 +2859,22 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.4645E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.5256E-2</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1.5436999999999999E-2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.5169999999999999E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.5466000000000001E-2</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5357666666666667E-2</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1584,17 +2884,22 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6.5490000000000001E-3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7.0210000000000003E-3</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>6.9420000000000003E-3</v>
+      </c>
+      <c r="D9" s="9">
+        <v>6.8960000000000002E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6.9680000000000002E-3</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>6.9353333333333324E-3</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
